--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="10000_iterations" sheetId="2" r:id="rId1"/>
+    <sheet name="Vibrations" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,6 +25,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Expected values(range 0 to 5, interval :0.1)</t>
+  </si>
+  <si>
+    <t>Expected values( range 0 to 10, interval:0.01)</t>
+  </si>
+  <si>
+    <t>Values from Neural network( Total error :0.8%, iternations: 8000, interval:0.01)</t>
+  </si>
+  <si>
+    <t>Values from Neural network (total error:0.5%, iterations:20000, interval:0.01)</t>
+  </si>
+  <si>
+    <t>Values from Neural network(total error:0.5% iterations:10000,interval:0.1)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,6 +113,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Interval</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> : 0.1 Iterations: 10000 Error: .5%</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -141,7 +201,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$1:$AY$1</c:f>
+              <c:f>'10000_iterations'!$B$2:$AZ$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -320,7 +380,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$AY$2</c:f>
+              <c:f>'10000_iterations'!$B$3:$AZ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -491,11 +551,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2073988128"/>
-        <c:axId val="-2078735680"/>
+        <c:axId val="2116273888"/>
+        <c:axId val="2116277136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2073988128"/>
+        <c:axId val="2116273888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078735680"/>
+        <c:crossAx val="2116277136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078735680"/>
+        <c:axId val="2116277136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073988128"/>
+        <c:crossAx val="2116273888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -678,7 +738,1897 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Interval : 0.01 Iterations: 20000 Error: .5%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000_iterations'!$B$5:$CX$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.290000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.760000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.840000000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.410000000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.24000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.89000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.56000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.25000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.96000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.69000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.44000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.21000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.81000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.49000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.08999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.03999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.00999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.99999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27.00999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.03999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.15999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.24999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.35999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.63999999999994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.80999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.99999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38.20999999999992</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39.43999999999992</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.68999999999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.95999999999992</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.2499999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.5599999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.23999999999988</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.60999999999988</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49.99999999999987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.40999999999987</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>52.83999999999986</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>54.28999999999985</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55.75999999999984</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>57.24999999999984</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58.75999999999983</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>60.28999999999982</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.83999999999982</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.40999999999981</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>66.60999999999978</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.23999999999978</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.88999999999977</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71.55999999999976</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>73.24999999999975</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>74.95999999999975</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76.68999999999974</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78.43999999999972</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80.20999999999972</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>81.9999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>83.8099999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.63999999999968</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87.48999999999968</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.35999999999967</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>91.24999999999965</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>93.15999999999965</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>95.08999999999964</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97.03999999999963</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99.00999999999962</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100.9999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000_iterations'!$B$6:$CX$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.29074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.99376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.68957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.37801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.05889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.732041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.397271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0543913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.296792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.656478</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02487</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.40218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.78861</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.18439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.58974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.00488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.43006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.86552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.31149</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.76822</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.23599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.71505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.20567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.70812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2227</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.74969</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.28939</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.40814</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.98782</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.5815</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.1894</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.8121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.4497</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.1027</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.7714</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.4563</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.1576</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.8759</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.6114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.3647</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18.1361</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.9261</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.7351</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.5636</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.2808</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.1705</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.0815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.0144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.9696</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.9476</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.9489</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.9741</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.0235</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.0978</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.1973</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33.3225</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.4739</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.6519</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.857</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38.0893</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39.3493</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.6373</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.9533</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.2976</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.6702</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.071</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.4998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.9563</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50.4402</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.9506</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53.4868</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>55.0478</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.6323</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>58.2388</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>59.8654</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>61.51</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63.1703</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64.8433</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.526</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>68.2149</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69.9061</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71.5953</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>73.2779</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>74.9489</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>76.6032</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>78.2352</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>79.8392</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81.4094</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82.9398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>84.4246</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.8582</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87.2352</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>88.5506</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.7999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.9792</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>92.0853</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>93.116</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94.0698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000_iterations'!$B$7:$CX$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-1.58531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.35005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.10713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.856318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.597364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.330024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.0540449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.230833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.524876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.828356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.14155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.46475</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.79824</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.14232</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.49729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.86347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.24117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.03241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.44661</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.87365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.31387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.76762</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.23525</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.71711</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.21357</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.72498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.25171</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.79413</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3526</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.92749</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.7544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.3986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.0611</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.7422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.4422</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.1615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.9004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.6592</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.4383</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.238</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.0584</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.7628</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21.6473</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.5536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.4819</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.4323</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.4051</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.4003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27.418</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>28.4584</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.5215</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.6073</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.7158</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.8471</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.1775</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.3766</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37.5981</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38.842</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.1081</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.3964</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42.7067</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.0389</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45.393</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.7689</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.1666</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49.586</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51.0271</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>52.4901</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>53.9751</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>55.4821</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>57.0115</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>58.5632</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>60.1376</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.7349</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.355</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64.998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>66.66370000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.3515</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>70.0607</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>71.7899</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>73.5369</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>75.299</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>77.0723</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78.8517</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80.63079999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82.4015</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>84.1542</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.8775</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87.5586</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.1832</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.7362</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>92.2025</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>93.5672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>94.8175</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>95.9429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2133274352"/>
+        <c:axId val="2083108848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2133274352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2083108848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083108848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2133274352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vibrations!$A$2:$CV$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.367823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.367799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.367736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.367698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.135253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.135217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.135196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.135174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0497188</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0497094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0496994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0496888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0496776</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.018271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0182665</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0182617</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0182566</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0182514</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0182459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00671022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00670805</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00670579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00670346</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00670104</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00246425</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00246331</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00246233</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00246132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00246028</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000904692</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000904288</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000903872</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000903446</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000903008</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000332033</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000331864</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000331691</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000331514</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000331333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000121822</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000121753</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000121682</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000121609</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000121535</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>4.46825E-5</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>4.46541E-5</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>4.46252E-5</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>4.45958E-5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00E+00">
+                  <c:v>4.45659E-5</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>1.63836E-5</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>1.63722E-5</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>1.63606E-5</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>1.63488E-5</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>1.63368E-5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>6.00546E-6</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>6.00089E-6</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>5.99625E-6</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>5.99153E-6</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>5.98675E-6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>2.20061E-6</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>2.1988E-6</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>2.19696E-6</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>2.19509E-6</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>2.19319E-6</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>8.06123E-7</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>8.05406E-7</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>8.0468E-7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>8.03943E-7</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>8.03197E-7</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>2.95201E-7</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>2.9492E-7</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>2.94634E-7</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00E+00">
+                  <c:v>2.94345E-7</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00E+00">
+                  <c:v>2.94053E-7</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00E+00">
+                  <c:v>1.08067E-7</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>1.07957E-7</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00E+00">
+                  <c:v>1.07845E-7</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00E+00">
+                  <c:v>1.07732E-7</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00E+00">
+                  <c:v>1.07618E-7</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>3.9548E-8</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>3.95051E-8</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.00E+00">
+                  <c:v>3.94616E-8</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.00E+00">
+                  <c:v>3.94177E-8</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00E+00">
+                  <c:v>3.93733E-8</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.00E+00">
+                  <c:v>1.44681E-8</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00E+00">
+                  <c:v>1.44514E-8</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.00E+00">
+                  <c:v>1.44345E-8</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00E+00">
+                  <c:v>1.44175E-8</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.00E+00">
+                  <c:v>5.29757E-9</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.00E+00">
+                  <c:v>5.29117E-9</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>5.2847E-9</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.00E+00">
+                  <c:v>5.27818E-9</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00E+00">
+                  <c:v>5.27158E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2118524480"/>
+        <c:axId val="-2131772016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2118524480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2131772016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2131772016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118524480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1234,24 +3184,1121 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1532,579 +4579,2127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A2:CX7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.61622299999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.72177999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.83482299999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.95584199999999997</v>
+      </c>
+      <c r="F2">
+        <v>1.0853600000000001</v>
+      </c>
+      <c r="G2">
+        <v>1.22393</v>
+      </c>
+      <c r="H2">
+        <v>1.3721300000000001</v>
+      </c>
+      <c r="I2">
+        <v>1.5305899999999999</v>
+      </c>
+      <c r="J2">
+        <v>1.6999599999999999</v>
+      </c>
+      <c r="K2">
+        <v>1.8809199999999999</v>
+      </c>
+      <c r="L2">
+        <v>2.0741999999999998</v>
+      </c>
+      <c r="M2">
+        <v>2.2805599999999999</v>
+      </c>
+      <c r="N2">
+        <v>2.5007999999999999</v>
+      </c>
+      <c r="O2">
+        <v>2.73577</v>
+      </c>
+      <c r="P2">
+        <v>2.9863300000000002</v>
+      </c>
+      <c r="Q2">
+        <v>3.2534000000000001</v>
+      </c>
+      <c r="R2">
+        <v>3.5379299999999998</v>
+      </c>
+      <c r="S2">
+        <v>3.8409</v>
+      </c>
+      <c r="T2">
+        <v>4.1633199999999997</v>
+      </c>
+      <c r="U2">
+        <v>4.5062100000000003</v>
+      </c>
+      <c r="V2">
+        <v>4.8706300000000002</v>
+      </c>
+      <c r="W2">
+        <v>5.2576200000000002</v>
+      </c>
+      <c r="X2">
+        <v>5.6682399999999999</v>
+      </c>
+      <c r="Y2">
+        <v>6.1035199999999996</v>
+      </c>
+      <c r="Z2">
+        <v>6.5644400000000003</v>
+      </c>
+      <c r="AA2">
+        <v>7.0519400000000001</v>
+      </c>
+      <c r="AB2">
+        <v>7.5668600000000001</v>
+      </c>
+      <c r="AC2">
+        <v>8.1099200000000007</v>
+      </c>
+      <c r="AD2">
+        <v>8.6816700000000004</v>
+      </c>
+      <c r="AE2">
+        <v>9.2824799999999996</v>
+      </c>
+      <c r="AF2">
+        <v>9.9124400000000001</v>
+      </c>
+      <c r="AG2">
+        <v>10.571300000000001</v>
+      </c>
+      <c r="AH2">
+        <v>11.2585</v>
+      </c>
+      <c r="AI2">
+        <v>11.973000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>12.713100000000001</v>
+      </c>
+      <c r="AK2">
+        <v>13.476599999999999</v>
+      </c>
+      <c r="AL2">
+        <v>14.2606</v>
+      </c>
+      <c r="AM2">
+        <v>15.061299999999999</v>
+      </c>
+      <c r="AN2">
+        <v>15.8744</v>
+      </c>
+      <c r="AO2">
+        <v>16.694400000000002</v>
+      </c>
+      <c r="AP2">
+        <v>17.5152</v>
+      </c>
+      <c r="AQ2">
+        <v>18.329799999999999</v>
+      </c>
+      <c r="AR2">
+        <v>19.130700000000001</v>
+      </c>
+      <c r="AS2">
+        <v>19.9099</v>
+      </c>
+      <c r="AT2">
+        <v>20.659099999999999</v>
+      </c>
+      <c r="AU2">
+        <v>21.3705</v>
+      </c>
+      <c r="AV2">
+        <v>22.0366</v>
+      </c>
+      <c r="AW2">
+        <v>22.6511</v>
+      </c>
+      <c r="AX2">
+        <v>23.2087</v>
+      </c>
+      <c r="AY2">
+        <v>23.706299999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>24.142399999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:AG3" si="0">(B4*B4)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1.49</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.8099999999999998</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>2.21</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>2.44</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>2.6900000000000004</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>2.9600000000000004</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000009</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>3.5600000000000009</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>3.8900000000000015</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>4.240000000000002</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>4.6100000000000021</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>5.4100000000000019</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>5.8400000000000025</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>6.2900000000000036</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>6.7600000000000042</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>7.2500000000000044</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>7.7600000000000051</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>8.2900000000000063</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>8.840000000000007</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>9.4100000000000072</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>10.000000000000009</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>10.610000000000008</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:BM3" si="1">(AH4*AH4)+1</f>
+        <v>11.240000000000009</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="1"/>
+        <v>11.890000000000011</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="1"/>
+        <v>12.560000000000011</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="1"/>
+        <v>13.250000000000012</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="1"/>
+        <v>13.960000000000013</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="1"/>
+        <v>14.690000000000014</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="1"/>
+        <v>15.440000000000015</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="1"/>
+        <v>16.210000000000015</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="1"/>
+        <v>17.000000000000014</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="1"/>
+        <v>17.810000000000013</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="1"/>
+        <v>18.640000000000008</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="1"/>
+        <v>19.490000000000006</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="1"/>
+        <v>20.360000000000003</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="1"/>
+        <v>22.159999999999997</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="1"/>
+        <v>23.089999999999993</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="1"/>
+        <v>24.039999999999988</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="1"/>
+        <v>25.009999999999987</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="1"/>
+        <v>25.999999999999982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <f>E4+0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="G4">
+        <f>F4+0.1</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:AZ4" si="2">G4+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="2"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="2"/>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="2"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="2"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="2"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="2"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="2"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="2"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="2"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" ref="BA4" si="3">AZ4+0.1</f>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" ref="BB4" si="4">BA4+0.1</f>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" ref="BC4" si="5">BB4+0.1</f>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" ref="BD4" si="6">BC4+0.1</f>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" ref="BE4" si="7">BD4+0.1</f>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" ref="BF4" si="8">BE4+0.1</f>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" ref="BG4" si="9">BF4+0.1</f>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" ref="BH4" si="10">BG4+0.1</f>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" ref="BI4" si="11">BH4+0.1</f>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" ref="BJ4" si="12">BI4+0.1</f>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" ref="BK4" si="13">BJ4+0.1</f>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" ref="BL4" si="14">BK4+0.1</f>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" ref="BM4" si="15">BL4+0.1</f>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" ref="BN4" si="16">BM4+0.1</f>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="BO4">
+        <f t="shared" ref="BO4" si="17">BN4+0.1</f>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" ref="BP4" si="18">BO4+0.1</f>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="BQ4">
+        <f t="shared" ref="BQ4" si="19">BP4+0.1</f>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" ref="BR4" si="20">BQ4+0.1</f>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="BS4">
+        <f t="shared" ref="BS4" si="21">BR4+0.1</f>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="BT4">
+        <f t="shared" ref="BT4" si="22">BS4+0.1</f>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="BU4">
+        <f t="shared" ref="BU4" si="23">BT4+0.1</f>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="BV4">
+        <f t="shared" ref="BV4" si="24">BU4+0.1</f>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="BW4">
+        <f t="shared" ref="BW4" si="25">BV4+0.1</f>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="BX4">
+        <f t="shared" ref="BX4" si="26">BW4+0.1</f>
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="BY4">
+        <f t="shared" ref="BY4" si="27">BX4+0.1</f>
+        <v>7.4999999999999893</v>
+      </c>
+      <c r="BZ4">
+        <f t="shared" ref="BZ4" si="28">BY4+0.1</f>
+        <v>7.599999999999989</v>
+      </c>
+      <c r="CA4">
+        <f t="shared" ref="CA4" si="29">BZ4+0.1</f>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="CB4">
+        <f t="shared" ref="CB4" si="30">CA4+0.1</f>
+        <v>7.7999999999999883</v>
+      </c>
+      <c r="CC4">
+        <f t="shared" ref="CC4" si="31">CB4+0.1</f>
+        <v>7.8999999999999879</v>
+      </c>
+      <c r="CD4">
+        <f t="shared" ref="CD4" si="32">CC4+0.1</f>
+        <v>7.9999999999999876</v>
+      </c>
+      <c r="CE4">
+        <f t="shared" ref="CE4" si="33">CD4+0.1</f>
+        <v>8.0999999999999872</v>
+      </c>
+      <c r="CF4">
+        <f t="shared" ref="CF4" si="34">CE4+0.1</f>
+        <v>8.1999999999999869</v>
+      </c>
+      <c r="CG4">
+        <f t="shared" ref="CG4" si="35">CF4+0.1</f>
+        <v>8.2999999999999865</v>
+      </c>
+      <c r="CH4">
+        <f t="shared" ref="CH4" si="36">CG4+0.1</f>
+        <v>8.3999999999999861</v>
+      </c>
+      <c r="CI4">
+        <f t="shared" ref="CI4" si="37">CH4+0.1</f>
+        <v>8.4999999999999858</v>
+      </c>
+      <c r="CJ4">
+        <f t="shared" ref="CJ4" si="38">CI4+0.1</f>
+        <v>8.5999999999999854</v>
+      </c>
+      <c r="CK4">
+        <f t="shared" ref="CK4" si="39">CJ4+0.1</f>
+        <v>8.6999999999999851</v>
+      </c>
+      <c r="CL4">
+        <f t="shared" ref="CL4" si="40">CK4+0.1</f>
+        <v>8.7999999999999847</v>
+      </c>
+      <c r="CM4">
+        <f t="shared" ref="CM4" si="41">CL4+0.1</f>
+        <v>8.8999999999999844</v>
+      </c>
+      <c r="CN4">
+        <f t="shared" ref="CN4" si="42">CM4+0.1</f>
+        <v>8.999999999999984</v>
+      </c>
+      <c r="CO4">
+        <f t="shared" ref="CO4" si="43">CN4+0.1</f>
+        <v>9.0999999999999837</v>
+      </c>
+      <c r="CP4">
+        <f t="shared" ref="CP4" si="44">CO4+0.1</f>
+        <v>9.1999999999999833</v>
+      </c>
+      <c r="CQ4">
+        <f t="shared" ref="CQ4" si="45">CP4+0.1</f>
+        <v>9.2999999999999829</v>
+      </c>
+      <c r="CR4">
+        <f t="shared" ref="CR4" si="46">CQ4+0.1</f>
+        <v>9.3999999999999826</v>
+      </c>
+      <c r="CS4">
+        <f t="shared" ref="CS4" si="47">CR4+0.1</f>
+        <v>9.4999999999999822</v>
+      </c>
+      <c r="CT4">
+        <f t="shared" ref="CT4" si="48">CS4+0.1</f>
+        <v>9.5999999999999819</v>
+      </c>
+      <c r="CU4">
+        <f t="shared" ref="CU4" si="49">CT4+0.1</f>
+        <v>9.6999999999999815</v>
+      </c>
+      <c r="CV4">
+        <f t="shared" ref="CV4" si="50">CU4+0.1</f>
+        <v>9.7999999999999812</v>
+      </c>
+      <c r="CW4">
+        <f t="shared" ref="CW4" si="51">CV4+0.1</f>
+        <v>9.8999999999999808</v>
+      </c>
+      <c r="CX4">
+        <f t="shared" ref="CX4" si="52">CW4+0.1</f>
+        <v>9.9999999999999805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>(B4*B4)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>(C4*C4)+1</f>
+        <v>1.01</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:BO5" si="53">(D4*D4)+1</f>
+        <v>1.04</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="53"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="53"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="53"/>
+        <v>1.25</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="53"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="53"/>
+        <v>1.49</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="53"/>
+        <v>1.64</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="53"/>
+        <v>1.8099999999999998</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="53"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="53"/>
+        <v>2.21</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="53"/>
+        <v>2.44</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="53"/>
+        <v>2.6900000000000004</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="53"/>
+        <v>2.9600000000000004</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="53"/>
+        <v>3.2500000000000009</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="53"/>
+        <v>3.5600000000000009</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="53"/>
+        <v>3.8900000000000015</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="53"/>
+        <v>4.240000000000002</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="53"/>
+        <v>4.6100000000000021</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="53"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="53"/>
+        <v>5.4100000000000019</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="53"/>
+        <v>5.8400000000000025</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="53"/>
+        <v>6.2900000000000036</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="53"/>
+        <v>6.7600000000000042</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="53"/>
+        <v>7.2500000000000044</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="53"/>
+        <v>7.7600000000000051</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="53"/>
+        <v>8.2900000000000063</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="53"/>
+        <v>8.840000000000007</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="53"/>
+        <v>9.4100000000000072</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="53"/>
+        <v>10.000000000000009</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="53"/>
+        <v>10.610000000000008</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="53"/>
+        <v>11.240000000000009</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="53"/>
+        <v>11.890000000000011</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="53"/>
+        <v>12.560000000000011</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="53"/>
+        <v>13.250000000000012</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="53"/>
+        <v>13.960000000000013</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="53"/>
+        <v>14.690000000000014</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="53"/>
+        <v>15.440000000000015</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="53"/>
+        <v>16.210000000000015</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="53"/>
+        <v>17.000000000000014</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="53"/>
+        <v>17.810000000000013</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="53"/>
+        <v>18.640000000000008</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="53"/>
+        <v>19.490000000000006</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="53"/>
+        <v>20.360000000000003</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="53"/>
+        <v>21.25</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="53"/>
+        <v>22.159999999999997</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="53"/>
+        <v>23.089999999999993</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="53"/>
+        <v>24.039999999999988</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="53"/>
+        <v>25.009999999999987</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="53"/>
+        <v>25.999999999999982</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="53"/>
+        <v>27.009999999999977</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="53"/>
+        <v>28.039999999999974</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="53"/>
+        <v>29.089999999999971</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="53"/>
+        <v>30.159999999999965</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="53"/>
+        <v>31.249999999999961</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="53"/>
+        <v>32.359999999999957</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="53"/>
+        <v>33.489999999999952</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="53"/>
+        <v>34.639999999999944</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="53"/>
+        <v>35.809999999999938</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="53"/>
+        <v>36.999999999999936</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" si="53"/>
+        <v>38.20999999999993</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" si="53"/>
+        <v>39.439999999999927</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" si="53"/>
+        <v>40.68999999999992</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" si="53"/>
+        <v>41.959999999999916</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" si="53"/>
+        <v>43.249999999999908</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" ref="BP5:CX5" si="54">(BP4*BP4)+1</f>
+        <v>44.559999999999903</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="54"/>
+        <v>45.889999999999894</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" si="54"/>
+        <v>47.239999999999888</v>
+      </c>
+      <c r="BS5">
+        <f t="shared" si="54"/>
+        <v>48.609999999999886</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" si="54"/>
+        <v>49.999999999999879</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" si="54"/>
+        <v>51.409999999999869</v>
+      </c>
+      <c r="BV5">
+        <f t="shared" si="54"/>
+        <v>52.839999999999861</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" si="54"/>
+        <v>54.289999999999857</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" si="54"/>
+        <v>55.759999999999849</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" si="54"/>
+        <v>57.249999999999844</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" si="54"/>
+        <v>58.759999999999835</v>
+      </c>
+      <c r="CA5">
+        <f t="shared" si="54"/>
+        <v>60.289999999999822</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" si="54"/>
+        <v>61.839999999999819</v>
+      </c>
+      <c r="CC5">
+        <f t="shared" si="54"/>
+        <v>63.409999999999812</v>
+      </c>
+      <c r="CD5">
+        <f t="shared" si="54"/>
+        <v>64.999999999999801</v>
+      </c>
+      <c r="CE5">
+        <f t="shared" si="54"/>
+        <v>66.609999999999786</v>
+      </c>
+      <c r="CF5">
+        <f t="shared" si="54"/>
+        <v>68.239999999999782</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="54"/>
+        <v>69.889999999999773</v>
+      </c>
+      <c r="CH5">
+        <f t="shared" si="54"/>
+        <v>71.559999999999761</v>
+      </c>
+      <c r="CI5">
+        <f t="shared" si="54"/>
+        <v>73.249999999999758</v>
+      </c>
+      <c r="CJ5">
+        <f t="shared" si="54"/>
+        <v>74.959999999999752</v>
+      </c>
+      <c r="CK5">
+        <f t="shared" si="54"/>
+        <v>76.689999999999742</v>
+      </c>
+      <c r="CL5">
+        <f t="shared" si="54"/>
+        <v>78.439999999999728</v>
+      </c>
+      <c r="CM5">
+        <f t="shared" si="54"/>
+        <v>80.209999999999724</v>
+      </c>
+      <c r="CN5">
+        <f t="shared" si="54"/>
+        <v>81.999999999999716</v>
+      </c>
+      <c r="CO5">
+        <f t="shared" si="54"/>
+        <v>83.809999999999704</v>
+      </c>
+      <c r="CP5">
+        <f t="shared" si="54"/>
+        <v>85.639999999999688</v>
+      </c>
+      <c r="CQ5">
+        <f t="shared" si="54"/>
+        <v>87.489999999999682</v>
+      </c>
+      <c r="CR5">
+        <f t="shared" si="54"/>
+        <v>89.359999999999673</v>
+      </c>
+      <c r="CS5">
+        <f t="shared" si="54"/>
+        <v>91.249999999999659</v>
+      </c>
+      <c r="CT5">
+        <f t="shared" si="54"/>
+        <v>93.159999999999656</v>
+      </c>
+      <c r="CU5">
+        <f t="shared" si="54"/>
+        <v>95.089999999999648</v>
+      </c>
+      <c r="CV5">
+        <f t="shared" si="54"/>
+        <v>97.039999999999637</v>
+      </c>
+      <c r="CW5">
+        <f t="shared" si="54"/>
+        <v>99.009999999999621</v>
+      </c>
+      <c r="CX5">
+        <f t="shared" si="54"/>
+        <v>100.99999999999962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>-2.29074</v>
+      </c>
+      <c r="C6">
+        <v>-1.99376</v>
+      </c>
+      <c r="D6">
+        <v>-1.68957</v>
+      </c>
+      <c r="E6">
+        <v>-1.37801</v>
+      </c>
+      <c r="F6">
+        <v>-1.0588900000000001</v>
+      </c>
+      <c r="G6">
+        <v>-0.73204100000000005</v>
+      </c>
+      <c r="H6">
+        <v>-0.39727099999999999</v>
+      </c>
+      <c r="I6">
+        <v>-5.4391299999999997E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.296792</v>
+      </c>
+      <c r="K6">
+        <v>0.65647800000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.0248699999999999</v>
+      </c>
+      <c r="M6">
+        <v>1.40218</v>
+      </c>
+      <c r="N6">
+        <v>1.78861</v>
+      </c>
+      <c r="O6">
+        <v>2.1843900000000001</v>
+      </c>
+      <c r="P6">
+        <v>2.5897399999999999</v>
+      </c>
+      <c r="Q6">
+        <v>3.00488</v>
+      </c>
+      <c r="R6">
+        <v>3.4300600000000001</v>
+      </c>
+      <c r="S6">
+        <v>3.8655200000000001</v>
+      </c>
+      <c r="T6">
+        <v>4.31149</v>
+      </c>
+      <c r="U6">
+        <v>4.7682200000000003</v>
+      </c>
+      <c r="V6">
+        <v>5.2359900000000001</v>
+      </c>
+      <c r="W6">
+        <v>5.7150499999999997</v>
+      </c>
+      <c r="X6">
+        <v>6.2056699999999996</v>
+      </c>
+      <c r="Y6">
+        <v>6.7081200000000001</v>
+      </c>
+      <c r="Z6">
+        <v>7.2226999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>7.7496900000000002</v>
+      </c>
+      <c r="AB6">
+        <v>8.2893899999999991</v>
+      </c>
+      <c r="AC6">
+        <v>8.8421000000000003</v>
+      </c>
+      <c r="AD6">
+        <v>9.4081399999999995</v>
+      </c>
+      <c r="AE6">
+        <v>9.9878199999999993</v>
+      </c>
+      <c r="AF6">
+        <v>10.5815</v>
+      </c>
+      <c r="AG6">
+        <v>11.189399999999999</v>
+      </c>
+      <c r="AH6">
+        <v>11.812099999999999</v>
+      </c>
+      <c r="AI6">
+        <v>12.4497</v>
+      </c>
+      <c r="AJ6">
+        <v>13.1027</v>
+      </c>
+      <c r="AK6">
+        <v>13.7714</v>
+      </c>
+      <c r="AL6">
+        <v>14.456300000000001</v>
+      </c>
+      <c r="AM6">
+        <v>15.1576</v>
+      </c>
+      <c r="AN6">
+        <v>15.8759</v>
+      </c>
+      <c r="AO6">
+        <v>16.6114</v>
+      </c>
+      <c r="AP6">
+        <v>17.364699999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>18.136099999999999</v>
+      </c>
+      <c r="AR6">
+        <v>18.926100000000002</v>
+      </c>
+      <c r="AS6">
+        <v>19.735099999999999</v>
+      </c>
+      <c r="AT6">
+        <v>20.563600000000001</v>
+      </c>
+      <c r="AU6">
+        <v>21.411999999999999</v>
+      </c>
+      <c r="AV6">
+        <v>22.280799999999999</v>
+      </c>
+      <c r="AW6">
+        <v>23.170500000000001</v>
+      </c>
+      <c r="AX6">
+        <v>24.081499999999998</v>
+      </c>
+      <c r="AY6">
+        <v>25.014399999999998</v>
+      </c>
+      <c r="AZ6">
+        <v>25.9696</v>
+      </c>
+      <c r="BA6">
+        <v>26.947600000000001</v>
+      </c>
+      <c r="BB6">
+        <v>27.948899999999998</v>
+      </c>
+      <c r="BC6">
+        <v>28.9741</v>
+      </c>
+      <c r="BD6">
+        <v>30.023499999999999</v>
+      </c>
+      <c r="BE6">
+        <v>31.097799999999999</v>
+      </c>
+      <c r="BF6">
+        <v>32.197299999999998</v>
+      </c>
+      <c r="BG6">
+        <v>33.322499999999998</v>
+      </c>
+      <c r="BH6">
+        <v>34.4739</v>
+      </c>
+      <c r="BI6">
+        <v>35.651899999999998</v>
+      </c>
+      <c r="BJ6">
+        <v>36.856999999999999</v>
+      </c>
+      <c r="BK6">
+        <v>38.089300000000001</v>
+      </c>
+      <c r="BL6">
+        <v>39.349299999999999</v>
+      </c>
+      <c r="BM6">
+        <v>40.637300000000003</v>
+      </c>
+      <c r="BN6">
+        <v>41.953299999999999</v>
+      </c>
+      <c r="BO6">
+        <v>43.297600000000003</v>
+      </c>
+      <c r="BP6">
+        <v>44.670200000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>46.070999999999998</v>
+      </c>
+      <c r="BR6">
+        <v>47.4998</v>
+      </c>
+      <c r="BS6">
+        <v>48.956299999999999</v>
+      </c>
+      <c r="BT6">
+        <v>50.440199999999997</v>
+      </c>
+      <c r="BU6">
+        <v>51.950600000000001</v>
+      </c>
+      <c r="BV6">
+        <v>53.486800000000002</v>
+      </c>
+      <c r="BW6">
+        <v>55.047800000000002</v>
+      </c>
+      <c r="BX6">
+        <v>56.632300000000001</v>
+      </c>
+      <c r="BY6">
+        <v>58.238799999999998</v>
+      </c>
+      <c r="BZ6">
+        <v>59.865400000000001</v>
+      </c>
+      <c r="CA6">
+        <v>61.51</v>
+      </c>
+      <c r="CB6">
+        <v>63.170299999999997</v>
+      </c>
+      <c r="CC6">
+        <v>64.843299999999999</v>
+      </c>
+      <c r="CD6">
+        <v>66.525999999999996</v>
+      </c>
+      <c r="CE6">
+        <v>68.2149</v>
+      </c>
+      <c r="CF6">
+        <v>69.906099999999995</v>
+      </c>
+      <c r="CG6">
+        <v>71.595299999999995</v>
+      </c>
+      <c r="CH6">
+        <v>73.277900000000002</v>
+      </c>
+      <c r="CI6">
+        <v>74.948899999999995</v>
+      </c>
+      <c r="CJ6">
+        <v>76.603200000000001</v>
+      </c>
+      <c r="CK6">
+        <v>78.235200000000006</v>
+      </c>
+      <c r="CL6">
+        <v>79.839200000000005</v>
+      </c>
+      <c r="CM6">
+        <v>81.409400000000005</v>
+      </c>
+      <c r="CN6">
+        <v>82.939800000000005</v>
+      </c>
+      <c r="CO6">
+        <v>84.424599999999998</v>
+      </c>
+      <c r="CP6">
+        <v>85.858199999999997</v>
+      </c>
+      <c r="CQ6">
+        <v>87.235200000000006</v>
+      </c>
+      <c r="CR6">
+        <v>88.550600000000003</v>
+      </c>
+      <c r="CS6">
+        <v>89.799899999999994</v>
+      </c>
+      <c r="CT6">
+        <v>90.979200000000006</v>
+      </c>
+      <c r="CU6">
+        <v>92.085300000000004</v>
+      </c>
+      <c r="CV6">
+        <v>93.116</v>
+      </c>
+      <c r="CW6">
+        <v>94.069800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-1.58531</v>
+      </c>
+      <c r="C7">
+        <v>-1.35005</v>
+      </c>
+      <c r="D7">
+        <v>-1.1071299999999999</v>
+      </c>
+      <c r="E7">
+        <v>-0.85631800000000002</v>
+      </c>
+      <c r="F7">
+        <v>-0.59736400000000001</v>
+      </c>
+      <c r="G7">
+        <v>-0.33002399999999998</v>
+      </c>
+      <c r="H7">
+        <v>-5.40449E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.23083300000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.52487600000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.82835599999999998</v>
+      </c>
+      <c r="L7">
+        <v>1.1415500000000001</v>
+      </c>
+      <c r="M7">
+        <v>1.46475</v>
+      </c>
+      <c r="N7">
+        <v>1.7982400000000001</v>
+      </c>
+      <c r="O7">
+        <v>2.1423199999999998</v>
+      </c>
+      <c r="P7">
+        <v>2.49729</v>
+      </c>
+      <c r="Q7">
+        <v>2.86347</v>
+      </c>
+      <c r="R7">
+        <v>3.2411699999999999</v>
+      </c>
+      <c r="S7">
+        <v>3.6307</v>
+      </c>
+      <c r="T7">
+        <v>4.0324099999999996</v>
+      </c>
+      <c r="U7">
+        <v>4.4466099999999997</v>
+      </c>
+      <c r="V7">
+        <v>4.8736499999999996</v>
+      </c>
+      <c r="W7">
+        <v>5.3138699999999996</v>
+      </c>
+      <c r="X7">
+        <v>5.76762</v>
+      </c>
+      <c r="Y7">
+        <v>6.2352499999999997</v>
+      </c>
+      <c r="Z7">
+        <v>6.7171099999999999</v>
+      </c>
+      <c r="AA7">
+        <v>7.2135699999999998</v>
+      </c>
+      <c r="AB7">
+        <v>7.7249800000000004</v>
+      </c>
+      <c r="AC7">
+        <v>8.2517099999999992</v>
+      </c>
+      <c r="AD7">
+        <v>8.7941299999999991</v>
+      </c>
+      <c r="AE7">
+        <v>9.3526000000000007</v>
+      </c>
+      <c r="AF7">
+        <v>9.9274900000000006</v>
+      </c>
+      <c r="AG7">
+        <v>10.5192</v>
+      </c>
+      <c r="AH7">
+        <v>11.128</v>
+      </c>
+      <c r="AI7">
+        <v>11.7544</v>
+      </c>
+      <c r="AJ7">
+        <v>12.3986</v>
+      </c>
+      <c r="AK7">
+        <v>13.0611</v>
+      </c>
+      <c r="AL7">
+        <v>13.7422</v>
+      </c>
+      <c r="AM7">
+        <v>14.4422</v>
+      </c>
+      <c r="AN7">
+        <v>15.1615</v>
+      </c>
+      <c r="AO7">
+        <v>15.900399999999999</v>
+      </c>
+      <c r="AP7">
+        <v>16.659199999999998</v>
+      </c>
+      <c r="AQ7">
+        <v>17.438300000000002</v>
+      </c>
+      <c r="AR7">
+        <v>18.238</v>
+      </c>
+      <c r="AS7">
+        <v>19.058399999999999</v>
+      </c>
+      <c r="AT7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AU7">
+        <v>20.762799999999999</v>
+      </c>
+      <c r="AV7">
+        <v>21.647300000000001</v>
+      </c>
+      <c r="AW7">
+        <v>22.553599999999999</v>
+      </c>
+      <c r="AX7">
+        <v>23.4819</v>
+      </c>
+      <c r="AY7">
+        <v>24.432300000000001</v>
+      </c>
+      <c r="AZ7">
+        <v>25.405100000000001</v>
+      </c>
+      <c r="BA7">
+        <v>26.400300000000001</v>
+      </c>
+      <c r="BB7">
+        <v>27.417999999999999</v>
+      </c>
+      <c r="BC7">
+        <v>28.458400000000001</v>
+      </c>
+      <c r="BD7">
+        <v>29.5215</v>
+      </c>
+      <c r="BE7">
+        <v>30.607299999999999</v>
+      </c>
+      <c r="BF7">
+        <v>31.715800000000002</v>
+      </c>
+      <c r="BG7">
+        <v>32.847099999999998</v>
+      </c>
+      <c r="BH7">
+        <v>34.000999999999998</v>
+      </c>
+      <c r="BI7">
+        <v>35.177500000000002</v>
+      </c>
+      <c r="BJ7">
+        <v>36.376600000000003</v>
+      </c>
+      <c r="BK7">
+        <v>37.598100000000002</v>
+      </c>
+      <c r="BL7">
+        <v>38.841999999999999</v>
+      </c>
+      <c r="BM7">
+        <v>40.1081</v>
+      </c>
+      <c r="BN7">
+        <v>41.3964</v>
+      </c>
+      <c r="BO7">
+        <v>42.706699999999998</v>
+      </c>
+      <c r="BP7">
+        <v>44.038899999999998</v>
+      </c>
+      <c r="BQ7">
+        <v>45.393000000000001</v>
+      </c>
+      <c r="BR7">
+        <v>46.768900000000002</v>
+      </c>
+      <c r="BS7">
+        <v>48.166600000000003</v>
+      </c>
+      <c r="BT7">
+        <v>49.585999999999999</v>
+      </c>
+      <c r="BU7">
+        <v>51.027099999999997</v>
+      </c>
+      <c r="BV7">
+        <v>52.490099999999998</v>
+      </c>
+      <c r="BW7">
+        <v>53.975099999999998</v>
+      </c>
+      <c r="BX7">
+        <v>55.482100000000003</v>
+      </c>
+      <c r="BY7">
+        <v>57.011499999999998</v>
+      </c>
+      <c r="BZ7">
+        <v>58.563200000000002</v>
+      </c>
+      <c r="CA7">
+        <v>60.137599999999999</v>
+      </c>
+      <c r="CB7">
+        <v>61.734900000000003</v>
+      </c>
+      <c r="CC7">
+        <v>63.354999999999997</v>
+      </c>
+      <c r="CD7">
+        <v>64.998000000000005</v>
+      </c>
+      <c r="CE7">
+        <v>66.663700000000006</v>
+      </c>
+      <c r="CF7">
+        <v>68.351500000000001</v>
+      </c>
+      <c r="CG7">
+        <v>70.060699999999997</v>
+      </c>
+      <c r="CH7">
+        <v>71.789900000000003</v>
+      </c>
+      <c r="CI7">
+        <v>73.536900000000003</v>
+      </c>
+      <c r="CJ7">
+        <v>75.299000000000007</v>
+      </c>
+      <c r="CK7">
+        <v>77.072299999999998</v>
+      </c>
+      <c r="CL7">
+        <v>78.851699999999994</v>
+      </c>
+      <c r="CM7">
+        <v>80.630799999999994</v>
+      </c>
+      <c r="CN7">
+        <v>82.401499999999999</v>
+      </c>
+      <c r="CO7">
+        <v>84.154200000000003</v>
+      </c>
+      <c r="CP7">
+        <v>85.877499999999998</v>
+      </c>
+      <c r="CQ7">
+        <v>87.558599999999998</v>
+      </c>
+      <c r="CR7">
+        <v>89.183199999999999</v>
+      </c>
+      <c r="CS7">
+        <v>90.736199999999997</v>
+      </c>
+      <c r="CT7">
+        <v>92.202500000000001</v>
+      </c>
+      <c r="CU7">
+        <v>93.5672</v>
+      </c>
+      <c r="CV7">
+        <v>94.817499999999995</v>
+      </c>
+      <c r="CW7">
+        <v>95.942899999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:CU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0.61622299999999997</v>
-      </c>
-      <c r="B1">
-        <v>0.72177999999999998</v>
-      </c>
-      <c r="C1">
-        <v>0.83482299999999998</v>
-      </c>
-      <c r="D1">
-        <v>0.95584199999999997</v>
-      </c>
-      <c r="E1">
-        <v>1.0853600000000001</v>
-      </c>
-      <c r="F1">
-        <v>1.22393</v>
-      </c>
-      <c r="G1">
-        <v>1.3721300000000001</v>
-      </c>
-      <c r="H1">
-        <v>1.5305899999999999</v>
-      </c>
-      <c r="I1">
-        <v>1.6999599999999999</v>
-      </c>
-      <c r="J1">
-        <v>1.8809199999999999</v>
-      </c>
-      <c r="K1">
-        <v>2.0741999999999998</v>
-      </c>
-      <c r="L1">
-        <v>2.2805599999999999</v>
-      </c>
-      <c r="M1">
-        <v>2.5007999999999999</v>
-      </c>
-      <c r="N1">
-        <v>2.73577</v>
-      </c>
-      <c r="O1">
-        <v>2.9863300000000002</v>
-      </c>
-      <c r="P1">
-        <v>3.2534000000000001</v>
-      </c>
-      <c r="Q1">
-        <v>3.5379299999999998</v>
-      </c>
-      <c r="R1">
-        <v>3.8409</v>
-      </c>
-      <c r="S1">
-        <v>4.1633199999999997</v>
-      </c>
-      <c r="T1">
-        <v>4.5062100000000003</v>
-      </c>
-      <c r="U1">
-        <v>4.8706300000000002</v>
-      </c>
-      <c r="V1">
-        <v>5.2576200000000002</v>
-      </c>
-      <c r="W1">
-        <v>5.6682399999999999</v>
-      </c>
-      <c r="X1">
-        <v>6.1035199999999996</v>
-      </c>
-      <c r="Y1">
-        <v>6.5644400000000003</v>
-      </c>
-      <c r="Z1">
-        <v>7.0519400000000001</v>
-      </c>
-      <c r="AA1">
-        <v>7.5668600000000001</v>
-      </c>
-      <c r="AB1">
-        <v>8.1099200000000007</v>
-      </c>
-      <c r="AC1">
-        <v>8.6816700000000004</v>
-      </c>
-      <c r="AD1">
-        <v>9.2824799999999996</v>
-      </c>
-      <c r="AE1">
-        <v>9.9124400000000001</v>
-      </c>
-      <c r="AF1">
-        <v>10.571300000000001</v>
-      </c>
-      <c r="AG1">
-        <v>11.2585</v>
-      </c>
-      <c r="AH1">
-        <v>11.973000000000001</v>
-      </c>
-      <c r="AI1">
-        <v>12.713100000000001</v>
-      </c>
-      <c r="AJ1">
-        <v>13.476599999999999</v>
-      </c>
-      <c r="AK1">
-        <v>14.2606</v>
-      </c>
-      <c r="AL1">
-        <v>15.061299999999999</v>
-      </c>
-      <c r="AM1">
-        <v>15.8744</v>
-      </c>
-      <c r="AN1">
-        <v>16.694400000000002</v>
-      </c>
-      <c r="AO1">
-        <v>17.5152</v>
-      </c>
-      <c r="AP1">
-        <v>18.329799999999999</v>
-      </c>
-      <c r="AQ1">
-        <v>19.130700000000001</v>
-      </c>
-      <c r="AR1">
-        <v>19.9099</v>
-      </c>
-      <c r="AS1">
-        <v>20.659099999999999</v>
-      </c>
-      <c r="AT1">
-        <v>21.3705</v>
-      </c>
-      <c r="AU1">
-        <v>22.0366</v>
-      </c>
-      <c r="AV1">
-        <v>22.6511</v>
-      </c>
-      <c r="AW1">
-        <v>23.2087</v>
-      </c>
-      <c r="AX1">
-        <v>23.706299999999999</v>
-      </c>
-      <c r="AY1">
-        <v>24.142399999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>(A3*A3)+1</f>
-        <v>1</v>
+        <v>0.99999400000000005</v>
       </c>
       <c r="B2">
-        <f>(B3*B3)+1</f>
-        <v>1.01</v>
+        <v>0.99997599999999998</v>
       </c>
       <c r="C2">
-        <f>(C3*C3)+1</f>
-        <v>1.04</v>
+        <v>0.99994499999999997</v>
       </c>
       <c r="D2">
-        <f>(D3*D3)+1</f>
-        <v>1.0900000000000001</v>
+        <v>0.99990299999999999</v>
       </c>
       <c r="E2">
-        <f>(E3*E3)+1</f>
-        <v>1.1600000000000001</v>
+        <v>0.36782300000000001</v>
       </c>
       <c r="F2">
-        <f>(F3*F3)+1</f>
-        <v>1.25</v>
+        <v>0.36779899999999999</v>
       </c>
       <c r="G2">
-        <f>(G3*G3)+1</f>
-        <v>1.3599999999999999</v>
+        <v>0.36776999999999999</v>
       </c>
       <c r="H2">
-        <f>(H3*H3)+1</f>
-        <v>1.49</v>
+        <v>0.36773600000000001</v>
       </c>
       <c r="I2">
-        <f>(I3*I3)+1</f>
-        <v>1.64</v>
+        <v>0.36769800000000002</v>
       </c>
       <c r="J2">
-        <f>(J3*J3)+1</f>
-        <v>1.8099999999999998</v>
+        <v>0.13525300000000001</v>
       </c>
       <c r="K2">
-        <f>(K3*K3)+1</f>
-        <v>1.9999999999999998</v>
+        <v>0.135236</v>
       </c>
       <c r="L2">
-        <f>(L3*L3)+1</f>
-        <v>2.21</v>
+        <v>0.135217</v>
       </c>
       <c r="M2">
-        <f>(M3*M3)+1</f>
-        <v>2.44</v>
+        <v>0.13519600000000001</v>
       </c>
       <c r="N2">
-        <f>(N3*N3)+1</f>
-        <v>2.6900000000000004</v>
+        <v>0.13517399999999999</v>
       </c>
       <c r="O2">
-        <f>(O3*O3)+1</f>
-        <v>2.9600000000000004</v>
+        <v>4.97188E-2</v>
       </c>
       <c r="P2">
-        <f>(P3*P3)+1</f>
-        <v>3.2500000000000009</v>
+        <v>4.9709400000000001E-2</v>
       </c>
       <c r="Q2">
-        <f>(Q3*Q3)+1</f>
-        <v>3.5600000000000009</v>
+        <v>4.9699399999999998E-2</v>
       </c>
       <c r="R2">
-        <f>(R3*R3)+1</f>
-        <v>3.8900000000000015</v>
+        <v>4.9688799999999998E-2</v>
       </c>
       <c r="S2">
-        <f>(S3*S3)+1</f>
-        <v>4.240000000000002</v>
+        <v>4.9677600000000002E-2</v>
       </c>
       <c r="T2">
-        <f>(T3*T3)+1</f>
-        <v>4.6100000000000021</v>
+        <v>1.8270999999999999E-2</v>
       </c>
       <c r="U2">
-        <f>(U3*U3)+1</f>
-        <v>5.0000000000000018</v>
+        <v>1.8266500000000001E-2</v>
       </c>
       <c r="V2">
-        <f>(V3*V3)+1</f>
-        <v>5.4100000000000019</v>
+        <v>1.8261699999999999E-2</v>
       </c>
       <c r="W2">
-        <f>(W3*W3)+1</f>
-        <v>5.8400000000000025</v>
+        <v>1.8256600000000001E-2</v>
       </c>
       <c r="X2">
-        <f>(X3*X3)+1</f>
-        <v>6.2900000000000036</v>
+        <v>1.8251400000000001E-2</v>
       </c>
       <c r="Y2">
-        <f>(Y3*Y3)+1</f>
-        <v>6.7600000000000042</v>
+        <v>1.8245899999999999E-2</v>
       </c>
       <c r="Z2">
-        <f>(Z3*Z3)+1</f>
-        <v>7.2500000000000044</v>
+        <v>6.7102200000000002E-3</v>
       </c>
       <c r="AA2">
-        <f>(AA3*AA3)+1</f>
-        <v>7.7600000000000051</v>
+        <v>6.7080500000000001E-3</v>
       </c>
       <c r="AB2">
-        <f>(AB3*AB3)+1</f>
-        <v>8.2900000000000063</v>
+        <v>6.7057899999999997E-3</v>
       </c>
       <c r="AC2">
-        <f>(AC3*AC3)+1</f>
-        <v>8.840000000000007</v>
+        <v>6.7034599999999996E-3</v>
       </c>
       <c r="AD2">
-        <f>(AD3*AD3)+1</f>
-        <v>9.4100000000000072</v>
+        <v>6.7010400000000001E-3</v>
       </c>
       <c r="AE2">
-        <f>(AE3*AE3)+1</f>
-        <v>10.000000000000009</v>
+        <v>2.4642499999999999E-3</v>
       </c>
       <c r="AF2">
-        <f>(AF3*AF3)+1</f>
-        <v>10.610000000000008</v>
+        <v>2.4633099999999998E-3</v>
       </c>
       <c r="AG2">
-        <f>(AG3*AG3)+1</f>
-        <v>11.240000000000009</v>
+        <v>2.46233E-3</v>
       </c>
       <c r="AH2">
-        <f>(AH3*AH3)+1</f>
-        <v>11.890000000000011</v>
+        <v>2.4613199999999999E-3</v>
       </c>
       <c r="AI2">
-        <f>(AI3*AI3)+1</f>
-        <v>12.560000000000011</v>
+        <v>2.46028E-3</v>
       </c>
       <c r="AJ2">
-        <f>(AJ3*AJ3)+1</f>
-        <v>13.250000000000012</v>
+        <v>9.0469200000000002E-4</v>
       </c>
       <c r="AK2">
-        <f>(AK3*AK3)+1</f>
-        <v>13.960000000000013</v>
+        <v>9.0428800000000005E-4</v>
       </c>
       <c r="AL2">
-        <f>(AL3*AL3)+1</f>
-        <v>14.690000000000014</v>
+        <v>9.0387200000000001E-4</v>
       </c>
       <c r="AM2">
-        <f>(AM3*AM3)+1</f>
-        <v>15.440000000000015</v>
+        <v>9.0344600000000002E-4</v>
       </c>
       <c r="AN2">
-        <f>(AN3*AN3)+1</f>
-        <v>16.210000000000015</v>
+        <v>9.0300799999999996E-4</v>
       </c>
       <c r="AO2">
-        <f>(AO3*AO3)+1</f>
-        <v>17.000000000000014</v>
+        <v>3.3203300000000002E-4</v>
       </c>
       <c r="AP2">
-        <f>(AP3*AP3)+1</f>
-        <v>17.810000000000013</v>
+        <v>3.3186400000000002E-4</v>
       </c>
       <c r="AQ2">
-        <f>(AQ3*AQ3)+1</f>
-        <v>18.640000000000008</v>
+        <v>3.3169100000000001E-4</v>
       </c>
       <c r="AR2">
-        <f>(AR3*AR3)+1</f>
-        <v>19.490000000000006</v>
+        <v>3.3151399999999998E-4</v>
       </c>
       <c r="AS2">
-        <f>(AS3*AS3)+1</f>
-        <v>20.360000000000003</v>
+        <v>3.3133300000000001E-4</v>
       </c>
       <c r="AT2">
-        <f>(AT3*AT3)+1</f>
-        <v>21.25</v>
+        <v>1.21822E-4</v>
       </c>
       <c r="AU2">
-        <f>(AU3*AU3)+1</f>
-        <v>22.159999999999997</v>
+        <v>1.21753E-4</v>
       </c>
       <c r="AV2">
-        <f>(AV3*AV3)+1</f>
-        <v>23.089999999999993</v>
+        <v>1.21682E-4</v>
       </c>
       <c r="AW2">
-        <f>(AW3*AW3)+1</f>
-        <v>24.039999999999988</v>
+        <v>1.2160899999999999E-4</v>
       </c>
       <c r="AX2">
-        <f>(AX3*AX3)+1</f>
-        <v>25.009999999999987</v>
-      </c>
-      <c r="AY2">
-        <f>(AY3*AY3)+1</f>
-        <v>25.999999999999982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3">
-        <f>D3+0.1</f>
-        <v>0.4</v>
-      </c>
-      <c r="F3">
-        <f>E3+0.1</f>
-        <v>0.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:AY3" si="0">F3+0.1</f>
-        <v>0.6</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000003</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000004</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000005</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000006</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000004</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>2.1000000000000005</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000006</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000008</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000009</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>2.600000000000001</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000012</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000012</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000013</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" si="0"/>
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>3.2000000000000015</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000016</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000017</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000018</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>3.6000000000000019</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>3.700000000000002</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>3.800000000000002</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>3.9000000000000021</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000018</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000014</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AT3">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="AU3">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" si="0"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" si="0"/>
-        <v>4.7999999999999989</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999986</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999982</v>
+        <v>1.2153499999999999E-4</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>4.4682499999999998E-5</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>4.4654100000000003E-5</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>4.4625200000000001E-5</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>4.4595799999999997E-5</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>4.45659E-5</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>1.63836E-5</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>1.6372199999999999E-5</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1.6360600000000001E-5</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>1.6348799999999998E-5</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1.6336799999999999E-5</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>6.0054600000000001E-6</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>6.0008899999999997E-6</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>5.9962500000000004E-6</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>5.9915299999999997E-6</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>5.9867499999999999E-6</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>2.20061E-6</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>2.1988E-6</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>2.1969600000000001E-6</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>2.1950900000000001E-6</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>2.1931900000000002E-6</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>8.06123E-7</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>8.0540600000000001E-7</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>8.0467999999999998E-7</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>8.0394299999999996E-7</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>8.0319700000000002E-7</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>2.9520100000000002E-7</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>2.9492E-7</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>2.9463399999999999E-7</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>2.9434500000000001E-7</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>2.9405299999999999E-7</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>1.08067E-7</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>1.0795700000000001E-7</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>1.07845E-7</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>1.07732E-7</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>1.07618E-7</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>3.9547999999999998E-8</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>3.9505100000000001E-8</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>3.9461599999999998E-8</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>3.94177E-8</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>3.9373300000000001E-8</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>1.44681E-8</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>1.44514E-8</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>1.4434499999999999E-8</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>1.44175E-8</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>5.2975699999999999E-9</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>5.2911699999999996E-9</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>5.2847000000000002E-9</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>5.2781799999999997E-9</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>5.2715800000000001E-9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>